--- a/JP (Exclude Game)/Dialog/Drama/fiama.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/fiama.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="fiama" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="165">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -76,10 +76,22 @@
     <t xml:space="preserve">start</t>
   </si>
   <si>
+    <t xml:space="preserve">&gt;=,*main,AfterMeetFarris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もう大丈夫そうね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You seem fine now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;,*main,AfterMeetFarris</t>
+  </si>
+  <si>
     <t xml:space="preserve">…頭は大丈夫？</t>
   </si>
   <si>
-    <t xml:space="preserve">...are you alright?</t>
+    <t xml:space="preserve">...Is your head alright?</t>
   </si>
   <si>
     <t xml:space="preserve">1-2</t>
@@ -667,7 +679,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -691,6 +703,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -762,7 +781,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -775,19 +794,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -989,12 +1012,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J144" activeCellId="0" sqref="J144"/>
+      <selection pane="bottomLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1048,7 +1071,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="1" t="n">
         <f aca="false">MAX(H4:H1048576)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,1014 +1106,1031 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="1" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="H13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="1" t="n">
+      <c r="H17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="1" t="n">
+      <c r="I17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
+      <c r="J26" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="I27" s="1" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="s">
-        <v>55</v>
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="s">
-        <v>55</v>
+      <c r="E34" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>58</v>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="s">
-        <v>55</v>
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="1" t="n">
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="s">
+      <c r="I43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="1" t="n">
+    <row r="47" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="1" t="n">
+      <c r="I47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1" t="s">
-        <v>68</v>
+      <c r="I51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="1" t="n">
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H54" s="1" t="n">
+      <c r="I56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="1" t="n">
+      <c r="I57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H58" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H58" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>76</v>
+      <c r="I58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J59" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>35</v>
+      <c r="I63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="1" t="n">
+      <c r="B66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="s">
-        <v>68</v>
+      <c r="I70" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H71" s="1" t="n">
+      <c r="B71" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H77" s="1" t="n">
+      <c r="I74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H81" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H82" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="I82" s="3" t="s">
+      <c r="I80" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J80" s="4" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H83" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>102</v>
+      <c r="A83" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H84" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H86" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>105</v>
+      <c r="I87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H88" s="1" t="n">
+      <c r="B88" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H89" s="1" t="n">
+      <c r="I91" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H92" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="1" t="s">
-        <v>65</v>
+      <c r="I92" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H94" s="1" t="n">
+      <c r="D93" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H97" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H95" s="1" t="n">
+      <c r="I97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H98" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D96" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H99" s="1" t="n">
+      <c r="I98" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H102" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="I99" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H100" s="1" t="n">
+      <c r="I102" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H103" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="I100" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D101" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D102" s="1" t="s">
-        <v>65</v>
+      <c r="I103" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H106" s="1" t="n">
+      <c r="D105" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H109" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="I106" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J106" s="3" t="s">
+      <c r="I109" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D111" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D112" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D108" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D109" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D113" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="5"/>
-      <c r="H114" s="1" t="n">
+      <c r="E116" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E117" s="6"/>
+      <c r="H117" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="I114" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J114" s="1" t="s">
+      <c r="I117" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H118" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H119" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H115" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H116" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D117" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D118" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="5"/>
-    </row>
-    <row r="123" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="5"/>
-      <c r="H123" s="1" t="n">
+      <c r="D121" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="6"/>
+      <c r="H126" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="I123" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D124" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D125" s="1" t="s">
-        <v>65</v>
+      <c r="I126" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>135</v>
+      <c r="D127" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="5"/>
-    </row>
-    <row r="129" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="5"/>
-      <c r="H129" s="1" t="n">
+      <c r="D128" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="6"/>
+      <c r="H132" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="I129" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H130" s="1" t="n">
+      <c r="I132" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H133" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="I130" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D131" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D132" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D139" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H142" s="1" t="n">
+      <c r="I133" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D134" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D135" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D142" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H145" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="I142" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H143" s="1" t="n">
+      <c r="I145" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H146" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="I143" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H144" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J144" s="3" t="s">
+      <c r="I146" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H145" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="I145" s="4" t="s">
+      <c r="J146" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H146" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="I146" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" s="3"/>
+        <v>26</v>
+      </c>
       <c r="H147" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>154</v>
+        <v>43</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H148" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>156</v>
+        <v>44</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H149" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G150" s="4"/>
+      <c r="H150" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H151" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H152" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="I149" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I150" s="4"/>
-      <c r="J150" s="3"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I151" s="3"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I152" s="3"/>
-    </row>
-    <row r="153" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H153" s="1" t="n">
+      <c r="I152" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I153" s="5"/>
+      <c r="J153" s="4"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I154" s="4"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I155" s="4"/>
+    </row>
+    <row r="156" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H156" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="I153" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D154" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D155" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D156" s="1" t="s">
-        <v>65</v>
+      <c r="I156" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D157" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D158" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D159" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
